--- a/app/export_resumo_resultados.xlsx
+++ b/app/export_resumo_resultados.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>60.7</v>
+        <v>60.23</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>63</v>
+        <v>61.29</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62.75</v>
+        <v>60.43</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>63.25</v>
+        <v>64.59999999999999</v>
       </c>
     </row>
   </sheetData>
